--- a/2023/A0)RoutineWork/Daily Action.xlsx
+++ b/2023/A0)RoutineWork/Daily Action.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\A0)RoutineWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rosa/Documents/Work/Soundec/soundec/2023/A0)RoutineWork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F784A43-3291-4DA2-9305-682B0097AD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CC6B81-EC07-0C49-9545-EE057A2895CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="24800" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3月" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -657,7 +659,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,6 +1023,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,9 +1060,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,23 +1344,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="48.21875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="29" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="48.1640625" style="28" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="35" customWidth="1"/>
     <col min="6" max="6" width="64" style="34" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="28"/>
+    <col min="7" max="7" width="36.1640625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" s="29" customFormat="1" ht="17">
       <c r="B2" s="26" t="s">
         <v>61</v>
       </c>
@@ -1378,7 +1380,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="17">
       <c r="B3" s="43">
         <v>44996</v>
       </c>
@@ -1394,7 +1396,7 @@
       <c r="F3" s="30"/>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="17">
       <c r="B4" s="44"/>
       <c r="C4" s="46"/>
       <c r="D4" s="27" t="s">
@@ -1406,7 +1408,7 @@
       <c r="F4" s="30"/>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="17">
       <c r="B5" s="44"/>
       <c r="C5" s="46" t="s">
         <v>51</v>
@@ -1422,7 +1424,7 @@
       </c>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="17">
       <c r="B6" s="44"/>
       <c r="C6" s="46"/>
       <c r="D6" s="27" t="s">
@@ -1438,7 +1440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="17">
       <c r="B7" s="44"/>
       <c r="C7" s="46" t="s">
         <v>52</v>
@@ -1456,7 +1458,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="17">
       <c r="B8" s="45"/>
       <c r="C8" s="46"/>
       <c r="D8" s="27" t="s">
@@ -1470,7 +1472,7 @@
       </c>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="17">
       <c r="B9" s="43">
         <v>44997</v>
       </c>
@@ -1488,7 +1490,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="17">
       <c r="B10" s="44"/>
       <c r="C10" s="46"/>
       <c r="D10" s="27" t="s">
@@ -1500,7 +1502,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="27"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="17">
       <c r="B11" s="45"/>
       <c r="C11" s="30" t="s">
         <v>67</v>
@@ -1516,7 +1518,7 @@
       </c>
       <c r="G11" s="27"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7">
       <c r="B12" s="26"/>
       <c r="C12" s="30"/>
       <c r="D12" s="27"/>
@@ -1524,7 +1526,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="17">
       <c r="B13" s="33">
         <v>45000</v>
       </c>
@@ -1540,7 +1542,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" s="26"/>
       <c r="C14" s="30"/>
       <c r="D14" s="27"/>
@@ -1548,7 +1550,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="27"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="17">
       <c r="B15" s="40">
         <v>45012</v>
       </c>
@@ -1566,7 +1568,7 @@
       </c>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="17">
       <c r="B16" s="41"/>
       <c r="C16" s="38"/>
       <c r="D16" s="27" t="s">
@@ -1580,7 +1582,7 @@
       </c>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="17">
       <c r="B17" s="42"/>
       <c r="C17" s="39"/>
       <c r="D17" s="27" t="s">
@@ -1596,7 +1598,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="36"/>
       <c r="C18" s="32"/>
       <c r="D18" s="27"/>
@@ -1604,7 +1606,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="27"/>
     </row>
-    <row r="19" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="34">
       <c r="B19" s="41">
         <v>45014</v>
       </c>
@@ -1620,7 +1622,7 @@
       <c r="F19" s="30"/>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="2:7" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="51">
       <c r="B20" s="41"/>
       <c r="C20" s="38"/>
       <c r="D20" s="27" t="s">
@@ -1636,7 +1638,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="140.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="136">
       <c r="B21" s="41"/>
       <c r="C21" s="38"/>
       <c r="D21" s="27" t="s">
@@ -1652,7 +1654,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="68">
       <c r="B22" s="41"/>
       <c r="C22" s="38"/>
       <c r="D22" s="27" t="s">
@@ -1666,7 +1668,7 @@
       </c>
       <c r="G22" s="27"/>
     </row>
-    <row r="23" spans="2:7" ht="78" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="68">
       <c r="B23" s="41"/>
       <c r="C23" s="39"/>
       <c r="D23" s="27" t="s">
@@ -1682,7 +1684,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="41"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
@@ -1690,7 +1692,7 @@
       <c r="F24" s="30"/>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="2:7" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="51">
       <c r="B25" s="41"/>
       <c r="C25" s="37" t="s">
         <v>120</v>
@@ -1708,7 +1710,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="78" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="85">
       <c r="B26" s="41"/>
       <c r="C26" s="38"/>
       <c r="D26" s="27" t="s">
@@ -1724,7 +1726,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="68">
       <c r="B27" s="41"/>
       <c r="C27" s="39"/>
       <c r="D27" s="27" t="s">
@@ -1740,7 +1742,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28" s="41"/>
       <c r="C28" s="32"/>
       <c r="D28" s="27"/>
@@ -1748,7 +1750,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="2:7" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="68">
       <c r="B29" s="41"/>
       <c r="C29" s="37" t="s">
         <v>110</v>
@@ -1766,7 +1768,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="17">
       <c r="B30" s="41"/>
       <c r="C30" s="39"/>
       <c r="D30" s="27" t="s">
@@ -1780,7 +1782,7 @@
       </c>
       <c r="G30" s="27"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31" s="42"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
@@ -1788,7 +1790,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32" s="26"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -1796,7 +1798,7 @@
       <c r="F32" s="30"/>
       <c r="G32" s="27"/>
     </row>
-    <row r="33" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="34">
       <c r="B33" s="40">
         <v>45015</v>
       </c>
@@ -1814,7 +1816,7 @@
       </c>
       <c r="G33" s="27"/>
     </row>
-    <row r="34" spans="2:7" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="51">
       <c r="B34" s="41"/>
       <c r="C34" s="38"/>
       <c r="D34" s="27" t="s">
@@ -1830,7 +1832,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="34">
       <c r="B35" s="41"/>
       <c r="C35" s="39"/>
       <c r="D35" s="27" t="s">
@@ -1846,7 +1848,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="17">
       <c r="B36" s="41"/>
       <c r="C36" s="30" t="s">
         <v>140</v>
@@ -1856,7 +1858,7 @@
       <c r="F36" s="30"/>
       <c r="G36" s="27"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="B37" s="42"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
@@ -1864,7 +1866,7 @@
       <c r="F37" s="30"/>
       <c r="G37" s="27"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7">
       <c r="B38" s="26"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -1872,7 +1874,7 @@
       <c r="F38" s="30"/>
       <c r="G38" s="27"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7">
       <c r="B39" s="26"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -1882,17 +1884,17 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="B19:B31"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C19:C23"/>
@@ -1911,16 +1913,16 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" s="7" customFormat="1" ht="25.25" customHeight="1">
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1940,7 +1942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" s="7" customFormat="1" ht="25.25" customHeight="1">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1948,7 +1950,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" s="7" customFormat="1" ht="25.25" customHeight="1">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1956,7 +1958,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" s="7" customFormat="1" ht="25.25" customHeight="1">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1964,7 +1966,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" s="22" customFormat="1">
       <c r="B6" s="25">
         <v>45014</v>
       </c>
@@ -1981,7 +1983,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -1989,7 +1991,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -1997,7 +1999,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -2005,7 +2007,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -2013,7 +2015,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -2021,7 +2023,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -2029,7 +2031,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -2037,7 +2039,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -2045,7 +2047,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -2053,7 +2055,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8">
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -2061,7 +2063,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8">
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -2069,7 +2071,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8">
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -2077,7 +2079,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8">
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -2085,7 +2087,7 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8">
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -2093,7 +2095,7 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8">
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -2101,7 +2103,7 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8">
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -2109,7 +2111,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8">
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
@@ -2117,7 +2119,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8">
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -2125,7 +2127,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8">
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -2133,7 +2135,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8">
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -2141,7 +2143,7 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8">
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -2164,29 +2166,29 @@
       <selection activeCell="D22" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="105" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="7" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="8" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="2:7" ht="27.5" customHeight="1">
+      <c r="B2" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-    </row>
-    <row r="3" spans="2:7" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="2:7" s="7" customFormat="1" ht="25.25" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2206,122 +2208,122 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+    <row r="4" spans="2:7" ht="22.75" customHeight="1">
+      <c r="B4" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="58" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="55"/>
-      <c r="C5" s="59"/>
+    <row r="5" spans="2:7" ht="22.75" customHeight="1">
+      <c r="B5" s="56"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="57"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
-      <c r="C6" s="59"/>
+    <row r="6" spans="2:7" ht="22.75" customHeight="1">
+      <c r="B6" s="56"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="10">
         <v>44999</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="55"/>
-      <c r="C7" s="59"/>
+    <row r="7" spans="2:7" ht="22.75" customHeight="1">
+      <c r="B7" s="56"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="55"/>
-      <c r="C8" s="59" t="s">
+    <row r="8" spans="2:7" ht="27" customHeight="1">
+      <c r="B8" s="56"/>
+      <c r="C8" s="47" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="55"/>
-      <c r="C9" s="59"/>
+    <row r="9" spans="2:7" ht="35.5" customHeight="1">
+      <c r="B9" s="56"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="51"/>
-    </row>
-    <row r="10" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="55"/>
-      <c r="C10" s="59" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" spans="2:7" ht="22.75" customHeight="1">
+      <c r="B10" s="56"/>
+      <c r="C10" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="52">
         <v>45013</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="55"/>
-      <c r="C11" s="59"/>
+    <row r="11" spans="2:7" ht="22.75" customHeight="1">
+      <c r="B11" s="56"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="51"/>
-    </row>
-    <row r="12" spans="2:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="55" t="s">
+      <c r="E11" s="48"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="2:7" ht="26.5" customHeight="1">
+      <c r="B12" s="56" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -2340,8 +2342,8 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="55"/>
+    <row r="13" spans="2:7" ht="26.5" customHeight="1">
+      <c r="B13" s="56"/>
       <c r="C13" s="18" t="s">
         <v>12</v>
       </c>
@@ -2351,15 +2353,15 @@
       <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="53" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="55" t="s">
+    <row r="14" spans="2:7" ht="26.5" customHeight="1">
+      <c r="B14" s="56" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -2371,13 +2373,13 @@
       <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="10">
         <v>44999</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
+    <row r="15" spans="2:7" ht="26.5" customHeight="1">
+      <c r="B15" s="56"/>
       <c r="C15" s="18" t="s">
         <v>14</v>
       </c>
@@ -2387,13 +2389,13 @@
       <c r="E15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="10">
         <v>45000</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="55"/>
+    <row r="16" spans="2:7" ht="26.5" customHeight="1">
+      <c r="B16" s="56"/>
       <c r="C16" s="18" t="s">
         <v>15</v>
       </c>
@@ -2403,13 +2405,13 @@
       <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="54"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="10">
         <v>45000</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="55"/>
+    <row r="17" spans="2:7" ht="26.5" customHeight="1">
+      <c r="B17" s="56"/>
       <c r="C17" s="18" t="s">
         <v>16</v>
       </c>
@@ -2426,8 +2428,8 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="56" t="s">
+    <row r="18" spans="2:7" ht="26.5" customHeight="1">
+      <c r="B18" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -2436,25 +2438,25 @@
       <c r="D18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-    </row>
-    <row r="19" spans="2:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="56"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+    </row>
+    <row r="19" spans="2:7" ht="26.5" customHeight="1">
+      <c r="B19" s="57"/>
       <c r="C19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-    </row>
-    <row r="20" spans="2:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="2:7" ht="26.5" customHeight="1">
       <c r="B20" s="14" t="s">
         <v>38</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="26.5" customHeight="1">
       <c r="B21" s="14" t="s">
         <v>39</v>
       </c>
@@ -2488,11 +2490,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="G8:G9"/>
@@ -2507,6 +2504,11 @@
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2522,7 +2524,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2023/A0)RoutineWork/Daily Action.xlsx
+++ b/2023/A0)RoutineWork/Daily Action.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rosa/Documents/Work/Soundec/soundec/2023/A0)RoutineWork/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\A0)RoutineWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CC6B81-EC07-0C49-9545-EE057A2895CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6515877A-8627-4F33-B938-952D24BD9ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="24800" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="3月" sheetId="1" r:id="rId1"/>
-    <sheet name="3-29" sheetId="4" r:id="rId2"/>
-    <sheet name="3-13" sheetId="2" r:id="rId3"/>
-    <sheet name="3-14" sheetId="3" r:id="rId4"/>
+    <sheet name="4月" sheetId="5" r:id="rId1"/>
+    <sheet name="3月" sheetId="1" r:id="rId2"/>
+    <sheet name="3-29" sheetId="4" r:id="rId3"/>
+    <sheet name="3-13" sheetId="2" r:id="rId4"/>
+    <sheet name="3-14" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -659,7 +660,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +994,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1011,55 +1024,43 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,26 +1342,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECA0D04-B9B9-410C-858A-7BA38EF07CCD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="29" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="48.1640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" style="28" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="35" customWidth="1"/>
     <col min="6" max="6" width="64" style="34" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="28"/>
+    <col min="7" max="7" width="36.109375" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="29" customFormat="1" ht="17">
+    <row r="2" spans="2:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>61</v>
       </c>
@@ -1380,11 +1397,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="17">
-      <c r="B3" s="43">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="38">
         <v>44996</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="27" t="s">
@@ -1396,9 +1413,9 @@
       <c r="F3" s="30"/>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="2:7" ht="17">
-      <c r="B4" s="44"/>
-      <c r="C4" s="46"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="39"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="27" t="s">
         <v>57</v>
       </c>
@@ -1408,9 +1425,9 @@
       <c r="F4" s="30"/>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="2:7" ht="17">
-      <c r="B5" s="44"/>
-      <c r="C5" s="46" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="39"/>
+      <c r="C5" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -1424,9 +1441,9 @@
       </c>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="2:7" ht="17">
-      <c r="B6" s="44"/>
-      <c r="C6" s="46"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="39"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="27" t="s">
         <v>48</v>
       </c>
@@ -1440,9 +1457,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="17">
-      <c r="B7" s="44"/>
-      <c r="C7" s="46" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="39"/>
+      <c r="C7" s="37" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="27" t="s">
@@ -1454,13 +1471,13 @@
       <c r="F7" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="17">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="27" t="s">
         <v>54</v>
       </c>
@@ -1470,13 +1487,13 @@
       <c r="F8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="9" spans="2:7" ht="17">
-      <c r="B9" s="43">
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="38">
         <v>44997</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="27" t="s">
@@ -1490,9 +1507,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="17">
-      <c r="B10" s="44"/>
-      <c r="C10" s="46"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="27" t="s">
         <v>46</v>
       </c>
@@ -1502,8 +1519,8 @@
       <c r="F10" s="30"/>
       <c r="G10" s="27"/>
     </row>
-    <row r="11" spans="2:7" ht="17">
-      <c r="B11" s="45"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
       <c r="C11" s="30" t="s">
         <v>67</v>
       </c>
@@ -1518,7 +1535,7 @@
       </c>
       <c r="G11" s="27"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
       <c r="C12" s="30"/>
       <c r="D12" s="27"/>
@@ -1526,7 +1543,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="2:7" ht="17">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="33">
         <v>45000</v>
       </c>
@@ -1542,7 +1559,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="26"/>
       <c r="C14" s="30"/>
       <c r="D14" s="27"/>
@@ -1550,11 +1567,11 @@
       <c r="F14" s="30"/>
       <c r="G14" s="27"/>
     </row>
-    <row r="15" spans="2:7" ht="17">
-      <c r="B15" s="40">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="44">
         <v>45012</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="41" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -1568,9 +1585,9 @@
       </c>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="2:7" ht="17">
-      <c r="B16" s="41"/>
-      <c r="C16" s="38"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="45"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="27" t="s">
         <v>99</v>
       </c>
@@ -1582,9 +1599,9 @@
       </c>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="2:7" ht="17">
-      <c r="B17" s="42"/>
-      <c r="C17" s="39"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="46"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="27" t="s">
         <v>100</v>
       </c>
@@ -1598,7 +1615,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="C18" s="32"/>
       <c r="D18" s="27"/>
@@ -1606,11 +1623,11 @@
       <c r="F18" s="30"/>
       <c r="G18" s="27"/>
     </row>
-    <row r="19" spans="2:7" ht="34">
-      <c r="B19" s="41">
+    <row r="19" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B19" s="45">
         <v>45014</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="41" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="30" t="s">
@@ -1622,9 +1639,9 @@
       <c r="F19" s="30"/>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="2:7" ht="51">
-      <c r="B20" s="41"/>
-      <c r="C20" s="38"/>
+    <row r="20" spans="2:7" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B20" s="45"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="27" t="s">
         <v>96</v>
       </c>
@@ -1638,9 +1655,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="136">
-      <c r="B21" s="41"/>
-      <c r="C21" s="38"/>
+    <row r="21" spans="2:7" ht="140.4" x14ac:dyDescent="0.25">
+      <c r="B21" s="45"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="27" t="s">
         <v>106</v>
       </c>
@@ -1654,9 +1671,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="68">
-      <c r="B22" s="41"/>
-      <c r="C22" s="38"/>
+    <row r="22" spans="2:7" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B22" s="45"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="27" t="s">
         <v>112</v>
       </c>
@@ -1668,9 +1685,9 @@
       </c>
       <c r="G22" s="27"/>
     </row>
-    <row r="23" spans="2:7" ht="68">
-      <c r="B23" s="41"/>
-      <c r="C23" s="39"/>
+    <row r="23" spans="2:7" ht="78" x14ac:dyDescent="0.25">
+      <c r="B23" s="45"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="27" t="s">
         <v>118</v>
       </c>
@@ -1684,17 +1701,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="41"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="45"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
       <c r="E24" s="31"/>
       <c r="F24" s="30"/>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="2:7" ht="51">
-      <c r="B25" s="41"/>
-      <c r="C25" s="37" t="s">
+    <row r="25" spans="2:7" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B25" s="45"/>
+      <c r="C25" s="41" t="s">
         <v>120</v>
       </c>
       <c r="D25" s="27" t="s">
@@ -1710,9 +1727,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="85">
-      <c r="B26" s="41"/>
-      <c r="C26" s="38"/>
+    <row r="26" spans="2:7" ht="78" x14ac:dyDescent="0.25">
+      <c r="B26" s="45"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="27" t="s">
         <v>123</v>
       </c>
@@ -1726,9 +1743,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="68">
-      <c r="B27" s="41"/>
-      <c r="C27" s="39"/>
+    <row r="27" spans="2:7" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B27" s="45"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="27" t="s">
         <v>127</v>
       </c>
@@ -1742,17 +1759,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="41"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="45"/>
       <c r="C28" s="32"/>
       <c r="D28" s="27"/>
       <c r="E28" s="31"/>
       <c r="F28" s="30"/>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="2:7" ht="68">
-      <c r="B29" s="41"/>
-      <c r="C29" s="37" t="s">
+    <row r="29" spans="2:7" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B29" s="45"/>
+      <c r="C29" s="41" t="s">
         <v>110</v>
       </c>
       <c r="D29" s="27" t="s">
@@ -1768,9 +1785,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="17">
-      <c r="B30" s="41"/>
-      <c r="C30" s="39"/>
+    <row r="30" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B30" s="45"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="27" t="s">
         <v>92</v>
       </c>
@@ -1782,15 +1799,15 @@
       </c>
       <c r="G30" s="27"/>
     </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="42"/>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="46"/>
       <c r="C31" s="30"/>
       <c r="D31" s="27"/>
       <c r="E31" s="31"/>
       <c r="F31" s="30"/>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
@@ -1798,11 +1815,11 @@
       <c r="F32" s="30"/>
       <c r="G32" s="27"/>
     </row>
-    <row r="33" spans="2:7" ht="34">
-      <c r="B33" s="40">
+    <row r="33" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B33" s="44">
         <v>45015</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="41" t="s">
         <v>114</v>
       </c>
       <c r="D33" s="27" t="s">
@@ -1816,9 +1833,9 @@
       </c>
       <c r="G33" s="27"/>
     </row>
-    <row r="34" spans="2:7" ht="51">
-      <c r="B34" s="41"/>
-      <c r="C34" s="38"/>
+    <row r="34" spans="2:7" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B34" s="45"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="27" t="s">
         <v>132</v>
       </c>
@@ -1832,9 +1849,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="34">
-      <c r="B35" s="41"/>
-      <c r="C35" s="39"/>
+    <row r="35" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B35" s="45"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="27" t="s">
         <v>135</v>
       </c>
@@ -1848,8 +1865,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="17">
-      <c r="B36" s="41"/>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="45"/>
       <c r="C36" s="30" t="s">
         <v>140</v>
       </c>
@@ -1858,15 +1875,15 @@
       <c r="F36" s="30"/>
       <c r="G36" s="27"/>
     </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="42"/>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="46"/>
       <c r="C37" s="30"/>
       <c r="D37" s="27"/>
       <c r="E37" s="31"/>
       <c r="F37" s="30"/>
       <c r="G37" s="27"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="26"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
@@ -1874,7 +1891,7 @@
       <c r="F38" s="30"/>
       <c r="G38" s="27"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="26"/>
       <c r="C39" s="30"/>
       <c r="D39" s="27"/>
@@ -1884,12 +1901,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="G7:G8"/>
@@ -1899,13 +1910,19 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBB2728-930D-4959-ABC4-245105915F46}">
   <dimension ref="B2:H27"/>
   <sheetViews>
@@ -1913,16 +1930,16 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="7" customFormat="1" ht="25.25" customHeight="1">
+    <row r="2" spans="2:8" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1942,7 +1959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="7" customFormat="1" ht="25.25" customHeight="1">
+    <row r="3" spans="2:8" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1950,7 +1967,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" s="7" customFormat="1" ht="25.25" customHeight="1">
+    <row r="4" spans="2:8" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1958,7 +1975,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" s="7" customFormat="1" ht="25.25" customHeight="1">
+    <row r="5" spans="2:8" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1966,7 +1983,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" s="22" customFormat="1">
+    <row r="6" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25">
         <v>45014</v>
       </c>
@@ -1983,7 +2000,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -1991,7 +2008,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -1999,7 +2016,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -2007,7 +2024,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -2015,7 +2032,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -2023,7 +2040,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -2031,7 +2048,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -2039,7 +2056,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -2047,7 +2064,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -2055,7 +2072,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -2063,7 +2080,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="3:8">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -2071,7 +2088,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="3:8">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -2079,7 +2096,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="3:8">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -2087,7 +2104,7 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -2095,7 +2112,7 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="3:8">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -2103,7 +2120,7 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -2111,7 +2128,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
@@ -2119,7 +2136,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -2127,7 +2144,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -2135,7 +2152,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -2143,7 +2160,7 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
     </row>
-    <row r="27" spans="3:8">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -2158,37 +2175,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851CBCE5-CF69-457E-8BF4-95CC7558DC4F}">
   <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D22" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="105" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="3"/>
+    <col min="8" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="27.5" customHeight="1">
-      <c r="B2" s="51" t="s">
+    <row r="2" spans="2:7" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3" spans="2:7" s="7" customFormat="1" ht="25.25" customHeight="1">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="2:7" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,122 +2225,122 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="22.75" customHeight="1">
-      <c r="B4" s="56" t="s">
+    <row r="4" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="56" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="2:7" ht="22.75" customHeight="1">
-      <c r="B5" s="56"/>
-      <c r="C5" s="47"/>
+    <row r="5" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="54"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="22.75" customHeight="1">
-      <c r="B6" s="56"/>
-      <c r="C6" s="47"/>
+    <row r="6" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="54"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="58"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="10">
         <v>44999</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="22.75" customHeight="1">
-      <c r="B7" s="56"/>
-      <c r="C7" s="47"/>
+    <row r="7" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="54"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="27" customHeight="1">
-      <c r="B8" s="56"/>
-      <c r="C8" s="47" t="s">
+    <row r="8" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="54"/>
+      <c r="C8" s="58" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="50" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="35.5" customHeight="1">
-      <c r="B9" s="56"/>
-      <c r="C9" s="47"/>
+    <row r="9" spans="2:7" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="54"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="52"/>
-    </row>
-    <row r="10" spans="2:7" ht="22.75" customHeight="1">
-      <c r="B10" s="56"/>
-      <c r="C10" s="47" t="s">
+      <c r="E9" s="59"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="54"/>
+      <c r="C10" s="58" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="50">
         <v>45013</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="22.75" customHeight="1">
-      <c r="B11" s="56"/>
-      <c r="C11" s="47"/>
+    <row r="11" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="54"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="52"/>
-    </row>
-    <row r="12" spans="2:7" ht="26.5" customHeight="1">
-      <c r="B12" s="56" t="s">
+      <c r="E11" s="59"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="54" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -2342,8 +2359,8 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="26.5" customHeight="1">
-      <c r="B13" s="56"/>
+    <row r="13" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="54"/>
       <c r="C13" s="18" t="s">
         <v>12</v>
       </c>
@@ -2353,15 +2370,15 @@
       <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="51" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="26.5" customHeight="1">
-      <c r="B14" s="56" t="s">
+    <row r="14" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -2373,13 +2390,13 @@
       <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="54"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="10">
         <v>44999</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="26.5" customHeight="1">
-      <c r="B15" s="56"/>
+    <row r="15" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="54"/>
       <c r="C15" s="18" t="s">
         <v>14</v>
       </c>
@@ -2389,13 +2406,13 @@
       <c r="E15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="10">
         <v>45000</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="26.5" customHeight="1">
-      <c r="B16" s="56"/>
+    <row r="16" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="54"/>
       <c r="C16" s="18" t="s">
         <v>15</v>
       </c>
@@ -2405,13 +2422,13 @@
       <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="10">
         <v>45000</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="26.5" customHeight="1">
-      <c r="B17" s="56"/>
+    <row r="17" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="54"/>
       <c r="C17" s="18" t="s">
         <v>16</v>
       </c>
@@ -2428,8 +2445,8 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="26.5" customHeight="1">
-      <c r="B18" s="57" t="s">
+    <row r="18" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="55" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -2438,25 +2455,25 @@
       <c r="D18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-    </row>
-    <row r="19" spans="2:7" ht="26.5" customHeight="1">
-      <c r="B19" s="57"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="55"/>
       <c r="C19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-    </row>
-    <row r="20" spans="2:7" ht="26.5" customHeight="1">
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>38</v>
       </c>
@@ -2476,7 +2493,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="26.5" customHeight="1">
+    <row r="21" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>39</v>
       </c>
@@ -2490,6 +2507,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="G8:G9"/>
@@ -2506,9 +2526,6 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2516,7 +2533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A477A11D-7B53-470B-9949-6FB80CB0C419}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2524,7 +2541,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2023/A0)RoutineWork/Daily Action.xlsx
+++ b/2023/A0)RoutineWork/Daily Action.xlsx
@@ -8,18 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\A0)RoutineWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6515877A-8627-4F33-B938-952D24BD9ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39805BCD-A7B6-4DD8-BA32-1647A17884D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="4月" sheetId="5" r:id="rId1"/>
-    <sheet name="3月" sheetId="1" r:id="rId2"/>
-    <sheet name="3-29" sheetId="4" r:id="rId3"/>
-    <sheet name="3-13" sheetId="2" r:id="rId4"/>
-    <sheet name="3-14" sheetId="3" r:id="rId5"/>
+    <sheet name="Demo项目跟进" sheetId="6" r:id="rId1"/>
+    <sheet name="评估任务跟进" sheetId="7" r:id="rId2"/>
+    <sheet name="4月" sheetId="5" r:id="rId3"/>
+    <sheet name="3月" sheetId="1" r:id="rId4"/>
+    <sheet name="3-29" sheetId="4" r:id="rId5"/>
+    <sheet name="3-13" sheetId="2" r:id="rId6"/>
+    <sheet name="3-14" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">评估任务跟进!$B$2:$G$5</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="199">
   <si>
     <t>责任人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -655,12 +658,260 @@
     <t>得胜扩音器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNC8600/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线麦克风扩音器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）	在领夹麦的佩戴方式下，实现有线麦的扩音效果，且没有啸叫。
+2）	当前使用的领夹麦克风，是全指向的模拟麦。以完成1）的需求为主要目的，接受任何形式的麦克风选型或组合（如单指向性模拟麦、全向性模拟麦、双数字麦阵列等）
+3）	根据算法需求，可以更换2.4G方案，要求整体延迟时间&lt;=30mS（2.4G无线传输延迟+算法延迟时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4-11日用了最新啸叫算法，针对功能需求：
+1）无扩音效果
+2\3\4\5\6) 暂未开始，算法单麦降噪优先
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB降噪麦克风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考客户样机，实现环境降噪功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法已听过样机效果，初测当前单麦降噪算法不及样机，需要等待下一版进阶算法；
+根据侧面沟通了解，预计4月底前进阶算法不会完成；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线语音控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近场离线语音控制演示样机：实现命令词离线识别、识别反馈、现场修改和自定义命令词
+远场离线语音控制演示样机：在近场样机基础上，搭配4Mic阵列拾音板，实现远场拾音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-12：
+1）给源泰袁总Demo，现场识别率不高，不同测试人员离麦克风不同远、近距离，识别效果不一样；需要继续优化
+2）为给终端客户Demo及实际产品导入需求的进一步确认，需要双芯片搭建远场拾音+离线控制模块，实现远场拾音&amp;离线语音识别样机，之后约客户Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟7.1游戏耳机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考客户样机（联想游戏耳机），实现虚拟7.1音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成Demo，暂未约到奥尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九音&amp;问问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi语音控制模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNC8600+WiFi模组，实现用户语音通过wifi上传问问后台，供后台识别调用；作为GPT导入的落地硬件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选好WiFi模组，wifi软件开发人员和后台控制协议确认中；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亨派电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线麦克风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）无线麦克风完整方案：要求双麦降噪，延时控制在18ms以内
+2）需要Dongle作为接收端，产品第二阶段希望能接音箱和声卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无合适的可以提供完整方案的方案商，一直未导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多美达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）语音控制
+2）降噪
+3）体感控制电话接挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-13：
+1）确认分工：九音负责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法资源确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出门问问，离线唤醒旧模型已移植并工作正常，但是唤醒率低，有库函数计算错误，待追踪问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备接好Demo，移植新算法调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙总说，原方案已调好，可直接移植到扩音器项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力马微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝科迅通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100和088 声卡项目需求评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新算法信息给力马微，对方不再继续48K单麦降噪的项目评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求驳回</t>
+  </si>
+  <si>
+    <t>评估中</t>
+  </si>
+  <si>
+    <t>暂未开始</t>
+  </si>
+  <si>
+    <t>辅听麦克风 实现可行性评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PRD: "03 待评估\源泰 - 辅听麦克风\客户要求.pdf"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD: "03 待评估\力马微- 100-088 声卡\088声卡需求(九音DSP)-2023041802-白2.docx"
+PRD: "03 待评估\力马微- 100-088 声卡100声卡需求(九音DSP)-20230418-白.docx"
+100项目需要48K单麦降噪算法；目前该算法不再使用，九音无法支持
+88项目，需要双路ADC降噪，目前资源不够用， 九音无法支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1收2发无线麦克风，功能和原理图评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD: “03 待评估\蓝科迅通-无线麦克风\方型外壳1收2发无线麦克风-PRD_v1.0.0.pdf”
+迅通的内推项目，无实际客户立项,配合对方做推广方案；PRD已看没问题，暂无完整可靠的算法方案；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）算法确认
+2）硬件评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,6 +1017,15 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -886,7 +1146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,35 +1254,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1057,11 +1323,35 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1342,27 +1632,604 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECA0D04-B9B9-410C-858A-7BA38EF07CCD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60346EB-3CE0-4452-881B-B41388D8E204}">
+  <dimension ref="C3:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="2.6640625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="66"/>
+    <col min="4" max="4" width="11.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.5546875" style="67" customWidth="1"/>
+    <col min="8" max="8" width="60.77734375" style="67" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C3" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="C4" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C5" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="C6" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C9" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C10" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441FE3B7-D7C5-4EF7-8CA6-38A56CAAB585}">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="67" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="69" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="67" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="69" customWidth="1"/>
+    <col min="6" max="6" width="78.88671875" style="67" customWidth="1"/>
+    <col min="7" max="7" width="53" style="67" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="64"/>
+    </row>
+    <row r="4" spans="2:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+    </row>
+    <row r="7" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+    </row>
+    <row r="8" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:G5" xr:uid="{441FE3B7-D7C5-4EF7-8CA6-38A56CAAB585}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 B3:B8" xr:uid="{B6B2C223-E1D4-49DA-97E6-767F99BACB3C}">
+      <formula1>"需求评估, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8" xr:uid="{8534ABCC-3757-40DE-9C96-ABCECF99E2F7}">
+      <formula1>"评估中,暂未开始,需求驳回,需求通过转研发"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECA0D04-B9B9-410C-858A-7BA38EF07CCD}">
+  <dimension ref="B2:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="7" width="42.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G39"/>
+  <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1398,10 +2265,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="38">
+      <c r="B3" s="43">
         <v>44996</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="27" t="s">
@@ -1414,8 +2281,8 @@
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="27" t="s">
         <v>57</v>
       </c>
@@ -1426,8 +2293,8 @@
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="46" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -1442,8 +2309,8 @@
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="27" t="s">
         <v>48</v>
       </c>
@@ -1458,8 +2325,8 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="46" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="27" t="s">
@@ -1471,13 +2338,13 @@
       <c r="F7" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="37" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="27" t="s">
         <v>54</v>
       </c>
@@ -1487,13 +2354,13 @@
       <c r="F8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="38">
+      <c r="B9" s="43">
         <v>44997</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="46" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="27" t="s">
@@ -1508,8 +2375,8 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="27" t="s">
         <v>46</v>
       </c>
@@ -1520,7 +2387,7 @@
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="30" t="s">
         <v>67</v>
       </c>
@@ -1568,10 +2435,10 @@
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="44">
+      <c r="B15" s="40">
         <v>45012</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="37" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -1586,8 +2453,8 @@
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="27" t="s">
         <v>99</v>
       </c>
@@ -1599,9 +2466,9 @@
       </c>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
-      <c r="C17" s="43"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="42"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="27" t="s">
         <v>100</v>
       </c>
@@ -1615,7 +2482,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="C18" s="32"/>
       <c r="D18" s="27"/>
@@ -1623,11 +2490,11 @@
       <c r="F18" s="30"/>
       <c r="G18" s="27"/>
     </row>
-    <row r="19" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="45">
+    <row r="19" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B19" s="41">
         <v>45014</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="37" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="30" t="s">
@@ -1639,9 +2506,9 @@
       <c r="F19" s="30"/>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="2:7" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="42"/>
+    <row r="20" spans="2:8" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B20" s="41"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="27" t="s">
         <v>96</v>
       </c>
@@ -1655,9 +2522,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="140.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="42"/>
+    <row r="21" spans="2:8" ht="140.4" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="27" t="s">
         <v>106</v>
       </c>
@@ -1671,9 +2538,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="42"/>
+    <row r="22" spans="2:8" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B22" s="41"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="27" t="s">
         <v>112</v>
       </c>
@@ -1685,9 +2552,9 @@
       </c>
       <c r="G22" s="27"/>
     </row>
-    <row r="23" spans="2:7" ht="78" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-      <c r="C23" s="43"/>
+    <row r="23" spans="2:8" ht="78" x14ac:dyDescent="0.25">
+      <c r="B23" s="41"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="27" t="s">
         <v>118</v>
       </c>
@@ -1701,190 +2568,205 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="31"/>
+    <row r="24" spans="2:8" s="34" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="41"/>
+      <c r="C24" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>115</v>
+      </c>
       <c r="F24" s="30"/>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="2:7" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="41" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="41"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="2:8" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B26" s="41"/>
+      <c r="C26" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D26" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E26" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F26" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G26" s="27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="78" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="27" t="s">
+    <row r="27" spans="2:8" ht="78" x14ac:dyDescent="0.25">
+      <c r="B27" s="41"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F27" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G27" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="27" t="s">
+    <row r="28" spans="2:8" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B28" s="41"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E28" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F28" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G28" s="27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="2:7" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="41" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="41"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="2:8" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="B30" s="41"/>
+      <c r="C30" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D30" s="27" t="s">
         <v>90</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>83</v>
       </c>
       <c r="F30" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B31" s="41"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="46"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="30"/>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="26"/>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="42"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
       <c r="E32" s="31"/>
       <c r="F32" s="30"/>
       <c r="G32" s="27"/>
     </row>
-    <row r="33" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B33" s="44">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="26"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B34" s="40">
         <v>45015</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C34" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D34" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="2:7" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B34" s="45"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="27" t="s">
-        <v>132</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="2:7" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B35" s="41"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="30" t="s">
         <v>138</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B35" s="45"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>137</v>
       </c>
       <c r="G35" s="27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="45"/>
-      <c r="C36" s="30" t="s">
+    <row r="36" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B36" s="41"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="46"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="27"/>
+      <c r="D37" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="26"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
       <c r="E38" s="31"/>
@@ -1899,35 +2781,43 @@
       <c r="F39" s="30"/>
       <c r="G39" s="27"/>
     </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="26"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B19:B31"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C25:C27"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B19:B32"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBB2728-930D-4959-ABC4-245105915F46}">
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2175,7 +3065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851CBCE5-CF69-457E-8BF4-95CC7558DC4F}">
   <dimension ref="B2:G21"/>
   <sheetViews>
@@ -2196,14 +3086,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="2:7" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2226,121 +3116,121 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="58" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="58"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="10">
         <v>44999</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="58"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="58" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="47" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="52" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="50"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="58" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="52">
         <v>45013</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="58"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="50"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="56" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -2360,7 +3250,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="54"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="18" t="s">
         <v>12</v>
       </c>
@@ -2370,7 +3260,7 @@
       <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="53" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -2378,7 +3268,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="56" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -2390,13 +3280,13 @@
       <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="10">
         <v>44999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="18" t="s">
         <v>14</v>
       </c>
@@ -2406,13 +3296,13 @@
       <c r="E15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="10">
         <v>45000</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="18" t="s">
         <v>15</v>
       </c>
@@ -2422,13 +3312,13 @@
       <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="10">
         <v>45000</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="18" t="s">
         <v>16</v>
       </c>
@@ -2446,7 +3336,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -2455,23 +3345,23 @@
       <c r="D18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="55"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
@@ -2507,6 +3397,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
@@ -2523,9 +3416,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2533,7 +3423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A477A11D-7B53-470B-9949-6FB80CB0C419}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/2023/A0)RoutineWork/Daily Action.xlsx
+++ b/2023/A0)RoutineWork/Daily Action.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\A0)RoutineWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39805BCD-A7B6-4DD8-BA32-1647A17884D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E41B94E-E4B8-43BC-AA3E-92CE367010A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo项目跟进" sheetId="6" r:id="rId1"/>
     <sheet name="评估任务跟进" sheetId="7" r:id="rId2"/>
-    <sheet name="4月" sheetId="5" r:id="rId3"/>
-    <sheet name="3月" sheetId="1" r:id="rId4"/>
-    <sheet name="3-29" sheetId="4" r:id="rId5"/>
-    <sheet name="3-13" sheetId="2" r:id="rId6"/>
-    <sheet name="3-14" sheetId="3" r:id="rId7"/>
+    <sheet name="5月 " sheetId="8" r:id="rId3"/>
+    <sheet name="4月" sheetId="5" r:id="rId4"/>
+    <sheet name="3月" sheetId="1" r:id="rId5"/>
+    <sheet name="3-29" sheetId="4" r:id="rId6"/>
+    <sheet name="3-13" sheetId="2" r:id="rId7"/>
+    <sheet name="3-14" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">评估任务跟进!$B$2:$G$5</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="209">
   <si>
     <t>责任人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -904,6 +905,58 @@
   <si>
     <t>1）算法确认
 2）硬件评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法在线烧录管理机制确认（出门问问&amp;九音）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九音在线烧录系统基本已覆盖所有场景需求：
+1）bin文件的加密&amp;解密
+2）UUID的获取接口&amp;上传记录
+3）通过Token控制Bin文件的烧录权限
+需要增加的场景：
+1）提供烧录授权结果供算法控制
+2）考虑到方案商可能不愿意提供其bin文件放到九音服务器，烧录工具留出本地文件导入接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出拜访</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和倬韵彭总了解相关产品应用：
+1）话务耳机，当前台湾客户出货稳定，但是指定用高通芯片
+2）会议音箱，通讯投资的硬件子公司寻音箱方案
+3）其他，耳机、声卡类应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）话务耳机走的是高通方案，暂时没有资源切入
+2）会议音箱提供慧为的整机供参考，初步商定，让对方直接买整机，可能涉及到后续ID外观专利需要处理。如要改结构外观再详细评估
+3）其他暂无好的切入口，先不跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要会议</t>
+  </si>
+  <si>
+    <t>力马微项目跟进会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）项目梳理（主要是富东总&amp;路平）
+2）关于力马微的下一步工作推进：标准板卡设计：A）麦克风板卡，B）耳机板卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板卡：
+1）先做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,7 +1199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1254,6 +1307,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1272,17 +1367,8 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1320,38 +1406,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1641,27 +1709,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.6640625" style="65" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="66"/>
+    <col min="1" max="2" width="2.6640625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="43"/>
     <col min="4" max="4" width="11.109375" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="79.5546875" style="67" customWidth="1"/>
-    <col min="8" max="8" width="60.77734375" style="67" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="65"/>
+    <col min="6" max="6" width="18.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.5546875" style="44" customWidth="1"/>
+    <col min="8" max="8" width="60.77734375" style="44" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C3" s="60" t="s">
+    <row r="3" spans="3:8" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C3" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="37" t="s">
         <v>144</v>
       </c>
       <c r="G3" s="26" t="s">
@@ -1672,7 +1740,7 @@
       </c>
     </row>
     <row r="4" spans="3:8" ht="69" x14ac:dyDescent="0.25">
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="39" t="s">
         <v>147</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -1681,18 +1749,18 @@
       <c r="E4" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="41" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="39" t="s">
         <v>147</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -1701,18 +1769,18 @@
       <c r="E5" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="41" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="39" t="s">
         <v>157</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -1721,18 +1789,18 @@
       <c r="E6" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="41" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="39" t="s">
         <v>147</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -1741,18 +1809,18 @@
       <c r="E7" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="41" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="39" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -1761,18 +1829,18 @@
       <c r="E8" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="41" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="39" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -1781,18 +1849,18 @@
       <c r="E9" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="41" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="39" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -1801,13 +1869,13 @@
       <c r="E10" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="41" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1821,20 +1889,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441FE3B7-D7C5-4EF7-8CA6-38A56CAAB585}">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="67" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="69" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="69" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="67" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="69" customWidth="1"/>
-    <col min="6" max="6" width="78.88671875" style="67" customWidth="1"/>
-    <col min="7" max="7" width="53" style="67" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="67"/>
+    <col min="1" max="1" width="4" style="44" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="78.88671875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="53" style="44" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="44"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1858,86 +1926,86 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="G3" s="64"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="41" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="41" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G5" xr:uid="{441FE3B7-D7C5-4EF7-8CA6-38A56CAAB585}"/>
@@ -1955,11 +2023,311 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D8405C-9E19-4030-A975-0AE8284C97B8}">
+  <dimension ref="B2:G30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="73" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="43" customWidth="1"/>
+    <col min="4" max="7" width="42.88671875" style="42" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="70"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="70"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="74">
+        <v>45068</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="2:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="71">
+        <v>45069</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="2:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="72"/>
+      <c r="C7" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="70"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="70"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="70"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="70"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="70"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="70"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="70"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="70"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="70"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="70"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="70"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="70"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="70"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="70"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="70"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="70"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="70"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="70"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="70"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="70"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="70"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="70"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30" xr:uid="{1F6F1B1E-CAA2-44AD-9B5E-99DD8A9110AA}">
+      <formula1>"技术讨论,外出拜访,重要会议"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECA0D04-B9B9-410C-858A-7BA38EF07CCD}">
   <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1970,7 +2338,7 @@
     <col min="4" max="7" width="42.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>61</v>
       </c>
@@ -2221,7 +2589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H40"/>
   <sheetViews>
@@ -2265,10 +2633,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="43">
+      <c r="B3" s="48">
         <v>44996</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="27" t="s">
@@ -2281,8 +2649,8 @@
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="27" t="s">
         <v>57</v>
       </c>
@@ -2293,8 +2661,8 @@
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="47" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -2309,8 +2677,8 @@
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
-      <c r="C6" s="46"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="27" t="s">
         <v>48</v>
       </c>
@@ -2325,8 +2693,8 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="47" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="27" t="s">
@@ -2338,13 +2706,13 @@
       <c r="F7" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="27" t="s">
         <v>54</v>
       </c>
@@ -2354,13 +2722,13 @@
       <c r="F8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="39"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="43">
+      <c r="B9" s="48">
         <v>44997</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="47" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="27" t="s">
@@ -2375,8 +2743,8 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="46"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="27" t="s">
         <v>46</v>
       </c>
@@ -2387,7 +2755,7 @@
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="30" t="s">
         <v>67</v>
       </c>
@@ -2435,10 +2803,10 @@
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="40">
+      <c r="B15" s="54">
         <v>45012</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="51" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -2453,8 +2821,8 @@
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="38"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="27" t="s">
         <v>99</v>
       </c>
@@ -2467,8 +2835,8 @@
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="27" t="s">
         <v>100</v>
       </c>
@@ -2491,10 +2859,10 @@
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="41">
+      <c r="B19" s="55">
         <v>45014</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="51" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="30" t="s">
@@ -2507,8 +2875,8 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="2:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="27" t="s">
         <v>96</v>
       </c>
@@ -2523,8 +2891,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="140.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
-      <c r="C21" s="38"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="27" t="s">
         <v>106</v>
       </c>
@@ -2539,8 +2907,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
-      <c r="C22" s="38"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="27" t="s">
         <v>112</v>
       </c>
@@ -2553,8 +2921,8 @@
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="78" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="27" t="s">
         <v>118</v>
       </c>
@@ -2569,7 +2937,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" s="34" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="30" t="s">
         <v>178</v>
       </c>
@@ -2584,7 +2952,7 @@
       <c r="H24" s="30"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="41"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
       <c r="E25" s="31"/>
@@ -2592,8 +2960,8 @@
       <c r="G25" s="27"/>
     </row>
     <row r="26" spans="2:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B26" s="41"/>
-      <c r="C26" s="37" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="51" t="s">
         <v>120</v>
       </c>
       <c r="D26" s="27" t="s">
@@ -2610,8 +2978,8 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="78" x14ac:dyDescent="0.25">
-      <c r="B27" s="41"/>
-      <c r="C27" s="38"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="27" t="s">
         <v>123</v>
       </c>
@@ -2626,8 +2994,8 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="27" t="s">
         <v>127</v>
       </c>
@@ -2642,7 +3010,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="41"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="32"/>
       <c r="D29" s="27"/>
       <c r="E29" s="31"/>
@@ -2650,8 +3018,8 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="2:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B30" s="41"/>
-      <c r="C30" s="37" t="s">
+      <c r="B30" s="55"/>
+      <c r="C30" s="51" t="s">
         <v>110</v>
       </c>
       <c r="D30" s="27" t="s">
@@ -2668,8 +3036,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="27" t="s">
         <v>92</v>
       </c>
@@ -2682,7 +3050,7 @@
       <c r="G31" s="27"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="42"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
       <c r="E32" s="31"/>
@@ -2698,10 +3066,10 @@
       <c r="G33" s="27"/>
     </row>
     <row r="34" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B34" s="40">
+      <c r="B34" s="54">
         <v>45015</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="51" t="s">
         <v>114</v>
       </c>
       <c r="D34" s="27" t="s">
@@ -2716,8 +3084,8 @@
       <c r="G34" s="27"/>
     </row>
     <row r="35" spans="2:7" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B35" s="41"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="27" t="s">
         <v>132</v>
       </c>
@@ -2732,8 +3100,8 @@
       </c>
     </row>
     <row r="36" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="27" t="s">
         <v>135</v>
       </c>
@@ -2748,7 +3116,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="30" t="s">
         <v>140</v>
       </c>
@@ -2766,7 +3134,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="42"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
       <c r="E38" s="31"/>
@@ -2791,12 +3159,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="G7:G8"/>
@@ -2806,18 +3168,24 @@
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBB2728-930D-4959-ABC4-245105915F46}">
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3065,7 +3433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851CBCE5-CF69-457E-8BF4-95CC7558DC4F}">
   <dimension ref="B2:G21"/>
   <sheetViews>
@@ -3086,14 +3454,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="2:7" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -3116,121 +3484,121 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="69" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="56"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="58"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="10">
         <v>44999</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="56"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="56"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="58" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="63" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="52"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="58" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="63">
         <v>45013</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="56"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="52"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="67" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -3250,7 +3618,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="56"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="18" t="s">
         <v>12</v>
       </c>
@@ -3260,7 +3628,7 @@
       <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="64" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -3268,7 +3636,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="67" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -3280,13 +3648,13 @@
       <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="54"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="10">
         <v>44999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="56"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="18" t="s">
         <v>14</v>
       </c>
@@ -3296,13 +3664,13 @@
       <c r="E15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="10">
         <v>45000</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="56"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="18" t="s">
         <v>15</v>
       </c>
@@ -3312,13 +3680,13 @@
       <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="55"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="10">
         <v>45000</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="56"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="18" t="s">
         <v>16</v>
       </c>
@@ -3336,7 +3704,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="68" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -3345,23 +3713,23 @@
       <c r="D18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
     </row>
     <row r="19" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
@@ -3397,12 +3765,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="G8:G9"/>
@@ -3416,6 +3778,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3423,7 +3791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A477A11D-7B53-470B-9949-6FB80CB0C419}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/2023/A0)RoutineWork/Daily Action.xlsx
+++ b/2023/A0)RoutineWork/Daily Action.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\A0)RoutineWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E41B94E-E4B8-43BC-AA3E-92CE367010A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E4AFBE-612C-4231-8A76-6B1B78E68CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo项目跟进" sheetId="6" r:id="rId1"/>
     <sheet name="评估任务跟进" sheetId="7" r:id="rId2"/>
-    <sheet name="5月 " sheetId="8" r:id="rId3"/>
-    <sheet name="4月" sheetId="5" r:id="rId4"/>
-    <sheet name="3月" sheetId="1" r:id="rId5"/>
-    <sheet name="3-29" sheetId="4" r:id="rId6"/>
-    <sheet name="3-13" sheetId="2" r:id="rId7"/>
-    <sheet name="3-14" sheetId="3" r:id="rId8"/>
+    <sheet name="6月 " sheetId="9" r:id="rId3"/>
+    <sheet name="5月 " sheetId="8" r:id="rId4"/>
+    <sheet name="4月" sheetId="5" r:id="rId5"/>
+    <sheet name="3月" sheetId="1" r:id="rId6"/>
+    <sheet name="3-29" sheetId="4" r:id="rId7"/>
+    <sheet name="3-13" sheetId="2" r:id="rId8"/>
+    <sheet name="3-14" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">评估任务跟进!$B$2:$G$5</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="209">
   <si>
     <t>责任人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1337,35 +1338,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1375,51 +1421,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2023,17 +2024,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D8405C-9E19-4030-A975-0AE8284C97B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2433FF3-5B57-4E58-84A3-46B5D11A772D}">
   <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="73" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="48" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="43" customWidth="1"/>
     <col min="4" max="7" width="42.88671875" style="42" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="42"/>
@@ -2060,7 +2061,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
@@ -2068,7 +2069,7 @@
       <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="70"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="39"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -2076,7 +2077,7 @@
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="74">
+      <c r="B5" s="49">
         <v>45068</v>
       </c>
       <c r="C5" s="39" t="s">
@@ -2094,7 +2095,7 @@
       <c r="G5" s="40"/>
     </row>
     <row r="6" spans="2:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="71">
+      <c r="B6" s="50">
         <v>45069</v>
       </c>
       <c r="C6" s="39" t="s">
@@ -2110,7 +2111,7 @@
       <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="72"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="39" t="s">
         <v>202</v>
       </c>
@@ -2124,7 +2125,7 @@
       <c r="G7" s="40"/>
     </row>
     <row r="8" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="70"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
@@ -2132,7 +2133,7 @@
       <c r="G8" s="40"/>
     </row>
     <row r="9" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="39"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -2140,7 +2141,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="39"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -2148,7 +2149,7 @@
       <c r="G10" s="40"/>
     </row>
     <row r="11" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="70"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="39"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -2156,7 +2157,7 @@
       <c r="G11" s="40"/>
     </row>
     <row r="12" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="39"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -2164,7 +2165,7 @@
       <c r="G12" s="40"/>
     </row>
     <row r="13" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -2172,7 +2173,7 @@
       <c r="G13" s="40"/>
     </row>
     <row r="14" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="70"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="39"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -2180,7 +2181,7 @@
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="70"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="39"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -2188,7 +2189,7 @@
       <c r="G15" s="40"/>
     </row>
     <row r="16" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="39"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -2196,7 +2197,7 @@
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -2204,7 +2205,7 @@
       <c r="G17" s="40"/>
     </row>
     <row r="18" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="70"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="39"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -2212,7 +2213,7 @@
       <c r="G18" s="40"/>
     </row>
     <row r="19" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="70"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="39"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -2220,7 +2221,7 @@
       <c r="G19" s="40"/>
     </row>
     <row r="20" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="70"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="39"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -2228,7 +2229,7 @@
       <c r="G20" s="40"/>
     </row>
     <row r="21" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="70"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="39"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -2236,7 +2237,7 @@
       <c r="G21" s="40"/>
     </row>
     <row r="22" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="70"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="39"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -2244,7 +2245,7 @@
       <c r="G22" s="40"/>
     </row>
     <row r="23" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="70"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="39"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -2252,7 +2253,7 @@
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="70"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="39"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -2260,7 +2261,7 @@
       <c r="G24" s="40"/>
     </row>
     <row r="25" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="39"/>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
@@ -2268,7 +2269,7 @@
       <c r="G25" s="40"/>
     </row>
     <row r="26" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="70"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="39"/>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
@@ -2276,7 +2277,7 @@
       <c r="G26" s="40"/>
     </row>
     <row r="27" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="70"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="39"/>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
@@ -2284,7 +2285,7 @@
       <c r="G27" s="40"/>
     </row>
     <row r="28" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="70"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="39"/>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
@@ -2292,7 +2293,7 @@
       <c r="G28" s="40"/>
     </row>
     <row r="29" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="70"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="39"/>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
@@ -2300,7 +2301,307 @@
       <c r="G29" s="40"/>
     </row>
     <row r="30" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="70"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30" xr:uid="{47A5103C-8760-4CAC-A61C-951C306ED608}">
+      <formula1>"技术讨论,外出拜访,重要会议"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D8405C-9E19-4030-A975-0AE8284C97B8}">
+  <dimension ref="B2:G30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="43" customWidth="1"/>
+    <col min="4" max="7" width="42.88671875" style="42" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="47"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="47"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="49">
+        <v>45068</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="2:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="50">
+        <v>45069</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="2:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="51"/>
+      <c r="C7" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="47"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="47"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="47"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="47"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="47"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="47"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="47"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="47"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="47"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="47"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="47"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="47"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="47"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="47"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="47"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="47"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="47"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="47"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="47"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="47"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="47"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="47"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="47"/>
       <c r="C30" s="39"/>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
@@ -2322,7 +2623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECA0D04-B9B9-410C-858A-7BA38EF07CCD}">
   <dimension ref="B2:G30"/>
   <sheetViews>
@@ -2589,7 +2890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H40"/>
   <sheetViews>
@@ -2633,10 +2934,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="48">
+      <c r="B3" s="58">
         <v>44996</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="61" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="27" t="s">
@@ -2649,8 +2950,8 @@
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="49"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="27" t="s">
         <v>57</v>
       </c>
@@ -2661,8 +2962,8 @@
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="61" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -2677,8 +2978,8 @@
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="27" t="s">
         <v>48</v>
       </c>
@@ -2693,8 +2994,8 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
-      <c r="C7" s="47" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="61" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="27" t="s">
@@ -2706,13 +3007,13 @@
       <c r="F7" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="52" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="27" t="s">
         <v>54</v>
       </c>
@@ -2722,13 +3023,13 @@
       <c r="F8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="48">
+      <c r="B9" s="58">
         <v>44997</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="61" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="27" t="s">
@@ -2743,8 +3044,8 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="27" t="s">
         <v>46</v>
       </c>
@@ -2755,7 +3056,7 @@
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="30" t="s">
         <v>67</v>
       </c>
@@ -2803,10 +3104,10 @@
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="54">
+      <c r="B15" s="55">
         <v>45012</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -2821,8 +3122,8 @@
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="55"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="27" t="s">
         <v>99</v>
       </c>
@@ -2835,8 +3136,8 @@
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="56"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="27" t="s">
         <v>100</v>
       </c>
@@ -2859,10 +3160,10 @@
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="55">
+      <c r="B19" s="56">
         <v>45014</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="52" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="30" t="s">
@@ -2875,8 +3176,8 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="2:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="55"/>
-      <c r="C20" s="52"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="27" t="s">
         <v>96</v>
       </c>
@@ -2891,8 +3192,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="140.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="55"/>
-      <c r="C21" s="52"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="27" t="s">
         <v>106</v>
       </c>
@@ -2907,8 +3208,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B22" s="55"/>
-      <c r="C22" s="52"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="27" t="s">
         <v>112</v>
       </c>
@@ -2921,8 +3222,8 @@
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="2:8" ht="78" x14ac:dyDescent="0.25">
-      <c r="B23" s="55"/>
-      <c r="C23" s="53"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="27" t="s">
         <v>118</v>
       </c>
@@ -2937,7 +3238,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" s="34" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="55"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="30" t="s">
         <v>178</v>
       </c>
@@ -2952,7 +3253,7 @@
       <c r="H24" s="30"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="55"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="30"/>
       <c r="D25" s="27"/>
       <c r="E25" s="31"/>
@@ -2960,8 +3261,8 @@
       <c r="G25" s="27"/>
     </row>
     <row r="26" spans="2:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B26" s="55"/>
-      <c r="C26" s="51" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="52" t="s">
         <v>120</v>
       </c>
       <c r="D26" s="27" t="s">
@@ -2978,8 +3279,8 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="78" x14ac:dyDescent="0.25">
-      <c r="B27" s="55"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="27" t="s">
         <v>123</v>
       </c>
@@ -2994,8 +3295,8 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="53"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="27" t="s">
         <v>127</v>
       </c>
@@ -3010,7 +3311,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="55"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="32"/>
       <c r="D29" s="27"/>
       <c r="E29" s="31"/>
@@ -3018,8 +3319,8 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="2:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="B30" s="55"/>
-      <c r="C30" s="51" t="s">
+      <c r="B30" s="56"/>
+      <c r="C30" s="52" t="s">
         <v>110</v>
       </c>
       <c r="D30" s="27" t="s">
@@ -3036,8 +3337,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B31" s="55"/>
-      <c r="C31" s="53"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="27" t="s">
         <v>92</v>
       </c>
@@ -3050,7 +3351,7 @@
       <c r="G31" s="27"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="56"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
       <c r="E32" s="31"/>
@@ -3066,10 +3367,10 @@
       <c r="G33" s="27"/>
     </row>
     <row r="34" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B34" s="54">
+      <c r="B34" s="55">
         <v>45015</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="52" t="s">
         <v>114</v>
       </c>
       <c r="D34" s="27" t="s">
@@ -3084,8 +3385,8 @@
       <c r="G34" s="27"/>
     </row>
     <row r="35" spans="2:7" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B35" s="55"/>
-      <c r="C35" s="52"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="27" t="s">
         <v>132</v>
       </c>
@@ -3100,8 +3401,8 @@
       </c>
     </row>
     <row r="36" spans="2:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B36" s="55"/>
-      <c r="C36" s="53"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="27" t="s">
         <v>135</v>
       </c>
@@ -3116,7 +3417,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="55"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="30" t="s">
         <v>140</v>
       </c>
@@ -3134,7 +3435,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="56"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="30"/>
       <c r="D38" s="27"/>
       <c r="E38" s="31"/>
@@ -3159,6 +3460,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="G7:G8"/>
@@ -3168,19 +3475,13 @@
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBB2728-930D-4959-ABC4-245105915F46}">
   <dimension ref="B2:H27"/>
   <sheetViews>
@@ -3433,7 +3734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851CBCE5-CF69-457E-8BF4-95CC7558DC4F}">
   <dimension ref="B2:G21"/>
   <sheetViews>
@@ -3454,14 +3755,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="2:7" s="7" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -3484,121 +3785,121 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="73" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="71" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="67"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="67"/>
-      <c r="C6" s="58"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="69"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="10">
         <v>44999</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="67"/>
-      <c r="C7" s="58"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="69"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
-      <c r="C8" s="58" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="73" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="65" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="67"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="63"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="67"/>
-      <c r="C10" s="58" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="65">
         <v>45013</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
-      <c r="C11" s="58"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="63"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="69" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -3618,7 +3919,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="18" t="s">
         <v>12</v>
       </c>
@@ -3628,7 +3929,7 @@
       <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="66" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -3636,7 +3937,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="69" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -3648,13 +3949,13 @@
       <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="65"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="10">
         <v>44999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="67"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="18" t="s">
         <v>14</v>
       </c>
@@ -3664,13 +3965,13 @@
       <c r="E15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="65"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="10">
         <v>45000</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="67"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="18" t="s">
         <v>15</v>
       </c>
@@ -3680,13 +3981,13 @@
       <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="66"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="10">
         <v>45000</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="67"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="18" t="s">
         <v>16</v>
       </c>
@@ -3704,7 +4005,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="70" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -3713,23 +4014,23 @@
       <c r="D18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
     </row>
     <row r="19" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="68"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
     </row>
     <row r="20" spans="2:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
@@ -3765,6 +4066,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="G8:G9"/>
@@ -3781,9 +4085,6 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3791,7 +4092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A477A11D-7B53-470B-9949-6FB80CB0C419}">
   <dimension ref="A1"/>
   <sheetViews>
